--- a/datalog4.xlsx
+++ b/datalog4.xlsx
@@ -1478,7 +1478,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1540,7 +1540,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1578,7 +1578,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -2298,7 +2298,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2360,7 +2360,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3177,7 +3177,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3239,7 +3239,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3707,807 +3707,807 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.324555320336759</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="B4" t="n">
-        <v>6.082762530298219</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2697243011007604</v>
+        <v>0.2294608249756936</v>
       </c>
       <c r="E4" t="n">
-        <v>7.071067811865476</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="F4" t="n">
-        <v>6.082762530298219</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>23.08679276123039</v>
+        <v>28.0178514522438</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2848778190674648</v>
+        <v>0.304489046517022</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2773010600841126</v>
+        <v>0.2669749357463578</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2608602120168225</v>
+        <v>0.2587949871492716</v>
       </c>
       <c r="K4" t="n">
-        <v>28.0713376952364</v>
+        <v>41.01219330881975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.280109889280518</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>6.082762530298219</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2783931754078904</v>
+        <v>0.2351924128151419</v>
       </c>
       <c r="E5" t="n">
-        <v>7.071067811865476</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>6.082762530298219</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>24.18677324489565</v>
+        <v>27.07397274136177</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2719219758869585</v>
+        <v>0.3139546634400751</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2751575756474244</v>
+        <v>0.2745735381276085</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2646917271463075</v>
+        <v>0.2625096947747932</v>
       </c>
       <c r="K5" t="n">
-        <v>28.0178514522438</v>
+        <v>41.04875150354759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.071067811865476</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>6.082762530298219</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>24.02082429892863</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2738005610979465</v>
+        <v>0.2645914644170346</v>
       </c>
       <c r="E6" t="n">
-        <v>6.082762530298219</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>6.082762530298219</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>23.08679276123039</v>
+        <v>33.01514803843835</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2634736922190852</v>
+        <v>0.2726021397669222</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2686371266585159</v>
+        <v>0.2685968020919784</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2674191524780106</v>
+        <v>0.265229055193189</v>
       </c>
       <c r="K6" t="n">
-        <v>28.0178514522438</v>
+        <v>44.01136216933077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.324555320336759</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B7" t="n">
-        <v>5.099019513592784</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>0.259626700771126</v>
+        <v>0.272141080301727</v>
       </c>
       <c r="E7" t="n">
-        <v>7.071067811865476</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F7" t="n">
-        <v>5.099019513592784</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>23.08679276123039</v>
+        <v>33.01514803843835</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2635724990327687</v>
+        <v>0.3187228025251455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2615995999019474</v>
+        <v>0.2954319414134362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2689390724584001</v>
+        <v>0.2735154434758762</v>
       </c>
       <c r="K7" t="n">
-        <v>28.0178514522438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.280109889280518</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B8" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2989828687738749</v>
+        <v>0.2673055617027831</v>
       </c>
       <c r="E8" t="n">
-        <v>7.071067811865476</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F8" t="n">
-        <v>7.071067811865476</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>23.1948270094864</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3048553804248462</v>
+        <v>0.309356827262375</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3019191245993605</v>
+        <v>0.288331194482579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2769228973782722</v>
+        <v>0.278781682372392</v>
       </c>
       <c r="K8" t="n">
-        <v>28.0178514522438</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C9" t="n">
-        <v>27.01851217221259</v>
+        <v>37.12142238654117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1850583025494013</v>
+        <v>0.2747723960085655</v>
       </c>
       <c r="E9" t="n">
-        <v>5.385164807134504</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="F9" t="n">
-        <v>5.099019513592784</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G9" t="n">
-        <v>24.18677324489565</v>
+        <v>31.01612483854165</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2167338366009583</v>
+        <v>0.3264094846424164</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2008960695751798</v>
+        <v>0.3005909403254909</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2616418992764856</v>
+        <v>0.2855048832882187</v>
       </c>
       <c r="K9" t="n">
-        <v>31.14482300479487</v>
+        <v>44.01136216933077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.071067811865476</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="B10" t="n">
-        <v>7.280109889280518</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="C10" t="n">
-        <v>27.01851217221259</v>
+        <v>37.21558813185679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2655804584958897</v>
+        <v>0.298607411844996</v>
       </c>
       <c r="E10" t="n">
-        <v>7.071067811865476</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F10" t="n">
-        <v>7.071067811865476</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G10" t="n">
-        <v>23.1948270094864</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3048553804248462</v>
+        <v>0.3139053764526082</v>
       </c>
       <c r="I10" t="n">
-        <v>0.285217919460368</v>
+        <v>0.3062563941488021</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2636539680390743</v>
+        <v>0.2918414544924574</v>
       </c>
       <c r="K10" t="n">
-        <v>31.06444913401813</v>
+        <v>45.04442251822083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.280109889280518</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="B11" t="n">
-        <v>6.324555320336759</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="C11" t="n">
-        <v>26.01922366251538</v>
+        <v>37.12142238654117</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2614348795736141</v>
+        <v>0.299364887924451</v>
       </c>
       <c r="E11" t="n">
-        <v>7.071067811865476</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F11" t="n">
-        <v>7.280109889280518</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G11" t="n">
-        <v>26.1725046566048</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2741651570883259</v>
+        <v>0.3216699319487855</v>
       </c>
       <c r="I11" t="n">
-        <v>0.26780001833097</v>
+        <v>0.3105174099366182</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2634865463735651</v>
+        <v>0.3002255760613853</v>
       </c>
       <c r="K11" t="n">
-        <v>32.0624390837628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.615773105863909</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>7.615773105863909</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>26.47640458974745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2719918966379967</v>
+        <v>0.3210405692052116</v>
       </c>
       <c r="E12" t="n">
-        <v>7.071067811865476</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="F12" t="n">
-        <v>7.280109889280518</v>
+        <v>8.944271909999159</v>
       </c>
       <c r="G12" t="n">
-        <v>27.29468812791236</v>
+        <v>37.21558813185679</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2628932346449867</v>
+        <v>0.2524900270984596</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2674425656414917</v>
+        <v>0.2867652981518356</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2646551395214741</v>
+        <v>0.2984922474090652</v>
       </c>
       <c r="K12" t="n">
-        <v>34.13209633175202</v>
+        <v>40.60788100849391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.062257748298549</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="B13" t="n">
-        <v>7.280109889280518</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C13" t="n">
-        <v>27.01851217221259</v>
+        <v>23.76972864800943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.283923251209925</v>
+        <v>0.4437416377505587</v>
       </c>
       <c r="E13" t="n">
-        <v>8.062257748298549</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="F13" t="n">
-        <v>8.062257748298549</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="G13" t="n">
-        <v>27.29468812791236</v>
+        <v>39.20459156782532</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2953782695928239</v>
+        <v>0.2866377205601804</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2896507604013745</v>
+        <v>0.3651896791553695</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2622014666818768</v>
+        <v>0.3138639443436232</v>
       </c>
       <c r="K13" t="n">
-        <v>32.0624390837628</v>
+        <v>37.10795063055895</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.071067811865476</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B14" t="n">
-        <v>6.082762530298219</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C14" t="n">
-        <v>26.01922366251538</v>
+        <v>24.35159132377184</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2527713838194522</v>
+        <v>0.3922795127685946</v>
       </c>
       <c r="E14" t="n">
-        <v>7.280109889280518</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F14" t="n">
-        <v>6.324555320336759</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G14" t="n">
-        <v>26.01922366251538</v>
+        <v>40.79215610874228</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2614348795736141</v>
+        <v>0.2632365150206338</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2571031316965331</v>
+        <v>0.3277580138946142</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2734428791061475</v>
+        <v>0.3192973590574479</v>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>37.94733192202055</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C15" t="n">
-        <v>24.18677324489565</v>
+        <v>25.29822128134704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2480694691784169</v>
+        <v>0.4001845509833475</v>
       </c>
       <c r="E15" t="n">
-        <v>5.385164807134504</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F15" t="n">
-        <v>5.385164807134504</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="G15" t="n">
-        <v>25.07987240796891</v>
+        <v>40.79215610874228</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2147205822874687</v>
+        <v>0.2799832842409398</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2313950257329428</v>
+        <v>0.3400839176121436</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2626783003606624</v>
+        <v>0.3260628637501163</v>
       </c>
       <c r="K15" t="n">
-        <v>30.14962686336267</v>
+        <v>39.21734310225516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C16" t="n">
-        <v>23.1948270094864</v>
+        <v>24.35159132377184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1940087761016521</v>
+        <v>0.3953216836907069</v>
       </c>
       <c r="E16" t="n">
-        <v>4.47213595499958</v>
+        <v>10.295630140987</v>
       </c>
       <c r="F16" t="n">
-        <v>4.123105625617661</v>
+        <v>9.433981132056603</v>
       </c>
       <c r="G16" t="n">
-        <v>23.3452350598575</v>
+        <v>41.23105625617661</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1840898487117162</v>
+        <v>0.2392566800915756</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1890493124066842</v>
+        <v>0.3172891818911412</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2469281591758053</v>
+        <v>0.3274172181410208</v>
       </c>
       <c r="K16" t="n">
-        <v>28.2842712474619</v>
+        <v>40.85339643163099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C17" t="n">
-        <v>21.21320343559643</v>
+        <v>23.76972864800943</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2121320343559643</v>
+        <v>0.404998821198898</v>
       </c>
       <c r="E17" t="n">
-        <v>4.123105625617661</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="F17" t="n">
-        <v>4.47213595499958</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="G17" t="n">
-        <v>21.21320343559643</v>
+        <v>40.26164427839479</v>
       </c>
       <c r="H17" t="n">
-        <v>0.202591786919701</v>
+        <v>0.2791559810703635</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2073619106378326</v>
+        <v>0.3420774011346308</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2349120281750735</v>
+        <v>0.3384796387375799</v>
       </c>
       <c r="K17" t="n">
-        <v>27.29468812791236</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8.246211251235321</v>
       </c>
       <c r="C18" t="n">
-        <v>20.22374841615668</v>
+        <v>23.76972864800943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2472340882170744</v>
+        <v>0.3673949325877319</v>
       </c>
       <c r="E18" t="n">
-        <v>4.47213595499958</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F18" t="n">
-        <v>4.47213595499958</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>13.15294643796591</v>
+        <v>39.56008088970496</v>
       </c>
       <c r="H18" t="n">
-        <v>0.340010200459023</v>
+        <v>0.2676983895274451</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2936221443380487</v>
+        <v>0.3175466610575885</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2357063049624083</v>
+        <v>0.3289510351180237</v>
       </c>
       <c r="K18" t="n">
-        <v>24.18677324489565</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B19" t="n">
-        <v>5.099019513592784</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="C19" t="n">
-        <v>19.4164878389476</v>
+        <v>22.84731931759173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2600629835158737</v>
+        <v>0.3782019668339162</v>
       </c>
       <c r="E19" t="n">
-        <v>3.605551275463989</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F19" t="n">
-        <v>4.47213595499958</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>16.27882059609971</v>
+        <v>38.60051813123756</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2481041910492867</v>
+        <v>0.274353051628583</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2540835872825802</v>
+        <v>0.3262775092312496</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2351023960796177</v>
+        <v>0.3286549341853507</v>
       </c>
       <c r="K19" t="n">
-        <v>25.49509756796392</v>
+        <v>38.07886552931954</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C20" t="n">
-        <v>38.01315561749642</v>
+        <v>23.76972864800943</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2367601387940954</v>
+        <v>0.3934916067997388</v>
       </c>
       <c r="E20" t="n">
-        <v>9.055385138137417</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F20" t="n">
-        <v>8.062257748298549</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G20" t="n">
-        <v>38.11823710509184</v>
+        <v>38.3275357934736</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2245335066157793</v>
+        <v>0.2801637202063858</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2306468227049374</v>
+        <v>0.3368276635030623</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2349527554740166</v>
+        <v>0.3280036833635345</v>
       </c>
       <c r="K20" t="n">
-        <v>50.03998401278722</v>
+        <v>38.62641583165593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B21" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C21" t="n">
-        <v>39.01281840626232</v>
+        <v>15.23154621172782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2321130722686739</v>
+        <v>0.6325497034430071</v>
       </c>
       <c r="E21" t="n">
-        <v>8.246211251235321</v>
+        <v>12.08304597359457</v>
       </c>
       <c r="F21" t="n">
-        <v>8.062257748298549</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="G21" t="n">
-        <v>39.11521443121589</v>
+        <v>37.8549864614954</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2084670790724197</v>
+        <v>0.3136304088688237</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2202900756705468</v>
+        <v>0.4730900561559154</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2412009081267891</v>
+        <v>0.3591638582164893</v>
       </c>
       <c r="K21" t="n">
-        <v>52.03844732503075</v>
+        <v>33.1058907144937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.071067811865476</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B22" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C22" t="n">
-        <v>37.05401462729781</v>
+        <v>17.72004514666935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1908313547935019</v>
+        <v>0.5156569705146956</v>
       </c>
       <c r="E22" t="n">
-        <v>7.280109889280518</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="F22" t="n">
-        <v>7.071067811865476</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G22" t="n">
-        <v>40.11234224026316</v>
+        <v>35.35533905932738</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1788873062458674</v>
+        <v>0.2932504283879444</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1848593305196846</v>
+        <v>0.40445369945132</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2367003921031595</v>
+        <v>0.3716391178798272</v>
       </c>
       <c r="K22" t="n">
-        <v>55.08175741568164</v>
+        <v>33.24154027718932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.324555320336759</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B23" t="n">
-        <v>6.082762530298219</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C23" t="n">
-        <v>34.05877273185281</v>
+        <v>19.6468827043885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1821456977959643</v>
+        <v>0.469262457358364</v>
       </c>
       <c r="E23" t="n">
-        <v>6.324555320336759</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="F23" t="n">
-        <v>6.324555320336759</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G23" t="n">
-        <v>41.10960958218893</v>
+        <v>36.34556369077249</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2791147288748437</v>
       </c>
       <c r="I23" t="n">
-        <v>0.167995925821059</v>
+        <v>0.3741885931166038</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2115751483997616</v>
+        <v>0.3829675042916302</v>
       </c>
       <c r="K23" t="n">
-        <v>55.22680508593631</v>
+        <v>33.52610922848042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.280109889280518</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B24" t="n">
-        <v>7.280109889280518</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C24" t="n">
-        <v>37.05401462729781</v>
+        <v>19.6468827043885</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1964729048257361</v>
+        <v>0.4899867438263469</v>
       </c>
       <c r="E24" t="n">
-        <v>8.246211251235321</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F24" t="n">
-        <v>8.246211251235321</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="G24" t="n">
-        <v>40.01249804748511</v>
+        <v>36.49657518178932</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2060908879382905</v>
+        <v>0.2905839248960957</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2012818963820133</v>
+        <v>0.3902853343612213</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2010148102196482</v>
+        <v>0.3957690693176246</v>
       </c>
       <c r="K24" t="n">
-        <v>56.1426753904728</v>
+        <v>33.24154027718932</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.280109889280518</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B25" t="n">
-        <v>7.071067811865476</v>
+        <v>8.246211251235321</v>
       </c>
       <c r="C25" t="n">
-        <v>37.01351104664349</v>
+        <v>19.6468827043885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1938640417422303</v>
+        <v>0.4444917794675616</v>
       </c>
       <c r="E25" t="n">
-        <v>9.486832980505138</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="F25" t="n">
-        <v>8.246211251235321</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G25" t="n">
-        <v>42.01190307520001</v>
+        <v>36.49657518178932</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2110478570799192</v>
+        <v>0.2779598388293476</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2024559494110748</v>
+        <v>0.3612258091484546</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1953766355608757</v>
+        <v>0.400648698446703</v>
       </c>
       <c r="K25" t="n">
-        <v>57.14017850864661</v>
+        <v>33.24154027718932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.324555320336759</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B26" t="n">
-        <v>7.280109889280518</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>20.6155281280883</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1838468271569902</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="E26" t="n">
-        <v>8.54400374531753</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="F26" t="n">
-        <v>7.280109889280518</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G26" t="n">
-        <v>42</v>
+        <v>36.34556369077249</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1883823051737863</v>
+        <v>0.2791147288748437</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1861145661653883</v>
+        <v>0.3631641621874008</v>
       </c>
       <c r="J26" t="n">
-        <v>0.188541533659844</v>
+        <v>0.378663519653</v>
       </c>
       <c r="K26" t="n">
-        <v>58.00862004909271</v>
+        <v>33.24154027718932</v>
       </c>
     </row>
     <row r="27">
@@ -4515,118 +4515,118 @@
         <v>9.219544457292887</v>
       </c>
       <c r="B27" t="n">
-        <v>8.246211251235321</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>19.6468827043885</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2425799403962251</v>
+        <v>0.439810286079919</v>
       </c>
       <c r="E27" t="n">
-        <v>10.44030650891055</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F27" t="n">
-        <v>9.219544457292887</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>36.49657518178932</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2457481370775429</v>
+        <v>0.2824811275217059</v>
       </c>
       <c r="I27" t="n">
-        <v>0.244164038736884</v>
+        <v>0.3611457068008124</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2004024753032839</v>
+        <v>0.3700019211228986</v>
       </c>
       <c r="K27" t="n">
-        <v>54.00925846556311</v>
+        <v>33.24154027718932</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.071067811865476</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B28" t="n">
-        <v>7.071067811865476</v>
+        <v>8.246211251235321</v>
       </c>
       <c r="C28" t="n">
-        <v>40.04996878900157</v>
+        <v>18.68154169226941</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1765561378866121</v>
+        <v>0.4674602341774527</v>
       </c>
       <c r="E28" t="n">
-        <v>8.246211251235321</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="F28" t="n">
-        <v>7.280109889280518</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G28" t="n">
-        <v>41.01219330881975</v>
+        <v>36.49657518178932</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1892890856092897</v>
+        <v>0.264897331954988</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1829226117479509</v>
+        <v>0.3661787830662204</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2033878124886623</v>
+        <v>0.3683999591128219</v>
       </c>
       <c r="K28" t="n">
-        <v>59.03388857258177</v>
+        <v>32.57299494980466</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B29" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>23.3452350598575</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1966404328853305</v>
+        <v>0.4123630393088127</v>
       </c>
       <c r="E29" t="n">
-        <v>8.062257748298549</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="F29" t="n">
-        <v>7.071067811865476</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="G29" t="n">
-        <v>41.01219330881975</v>
+        <v>38.3275357934736</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1844978814740636</v>
+        <v>0.2888916018363099</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1905691571796971</v>
+        <v>0.3506273205725613</v>
       </c>
       <c r="J29" t="n">
-        <v>0.201245264648199</v>
+        <v>0.3604683563550899</v>
       </c>
       <c r="K29" t="n">
-        <v>53</v>
+        <v>36.87817782917155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.18033988749895</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>11.04536101718726</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>42.01190307520001</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2645167116674397</v>
+        <v>0.296875</v>
       </c>
       <c r="E30" t="n">
         <v>10.04987562112089</v>
@@ -4635,226 +4635,226 @@
         <v>10.04987562112089</v>
       </c>
       <c r="G30" t="n">
-        <v>39.01281840626232</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2576044498109803</v>
+        <v>0.279055572128851</v>
       </c>
       <c r="I30" t="n">
-        <v>0.26106058073921</v>
+        <v>0.2879652860644255</v>
       </c>
       <c r="J30" t="n">
-        <v>0.212966190913826</v>
+        <v>0.3458162517382841</v>
       </c>
       <c r="K30" t="n">
-        <v>52</v>
+        <v>43.01162633521314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B31" t="n">
-        <v>9.219544457292887</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2342939691721834</v>
+        <v>0.272141080301727</v>
       </c>
       <c r="E31" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="F31" t="n">
-        <v>8.062257748298549</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>38.01315561749642</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2251541947566855</v>
+        <v>0.281977741937055</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2297240819644344</v>
+        <v>0.277059411119391</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2216880940736353</v>
+        <v>0.3285953015246822</v>
       </c>
       <c r="K31" t="n">
-        <v>49.01020301937138</v>
+        <v>43.01162633521314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B32" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>35.0142828000232</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2019480979305048</v>
+        <v>0.2436483591162488</v>
       </c>
       <c r="E32" t="n">
-        <v>7.071067811865476</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>36.01388621073821</v>
+        <v>31.06444913401813</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1953561430378197</v>
+        <v>0.305815820490334</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1986521204841623</v>
+        <v>0.2747320898032914</v>
       </c>
       <c r="J32" t="n">
-        <v>0.212585710423091</v>
+        <v>0.3113125781251779</v>
       </c>
       <c r="K32" t="n">
-        <v>45.04442251822083</v>
+        <v>42.01190307520001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.246211251235321</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>33.01514803843835</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230897211690293</v>
+        <v>0.2435489716517358</v>
       </c>
       <c r="E33" t="n">
         <v>8.062257748298549</v>
       </c>
       <c r="F33" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>34</v>
+        <v>31.06444913401813</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2225489052965298</v>
+        <v>0.2585311859064813</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2267230584934113</v>
+        <v>0.2510400787791086</v>
       </c>
       <c r="J33" t="n">
-        <v>0.221345799772183</v>
+        <v>0.2882848372677556</v>
       </c>
       <c r="K33" t="n">
-        <v>46.04345773288535</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>9.219544457292887</v>
+      </c>
+      <c r="B34" t="n">
         <v>8.062257748298549</v>
       </c>
-      <c r="B34" t="n">
-        <v>7.071067811865476</v>
-      </c>
       <c r="C34" t="n">
-        <v>32.0624390837628</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2359977280678548</v>
+        <v>0.2467821817784026</v>
       </c>
       <c r="E34" t="n">
-        <v>7.280109889280518</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>6.082762530298219</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>34.0147027033899</v>
+        <v>31.01612483854165</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1964278879063523</v>
+        <v>0.2740509990931434</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2162128079871035</v>
+        <v>0.260416590435773</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2264745299336643</v>
+        <v>0.2702426912403978</v>
       </c>
       <c r="K34" t="n">
-        <v>45.04442251822083</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B35" t="n">
-        <v>7.071067811865476</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2320799858045575</v>
+        <v>0.272141080301727</v>
       </c>
       <c r="E35" t="n">
-        <v>8.062257748298549</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>7.071067811865476</v>
+        <v>9</v>
       </c>
       <c r="G35" t="n">
-        <v>35.05709628591621</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2158382633396204</v>
+        <v>0.2967301475883515</v>
       </c>
       <c r="I35" t="n">
-        <v>0.223959124572089</v>
+        <v>0.2844356139450392</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2190542387002402</v>
+        <v>0.2695367568165206</v>
       </c>
       <c r="K35" t="n">
-        <v>45.0111097397076</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B36" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2320799858045575</v>
+        <v>0.2652485300734043</v>
       </c>
       <c r="E36" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F36" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G36" t="n">
-        <v>34.0147027033899</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2251567387883458</v>
+        <v>0.2983740444636136</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2286183622964517</v>
+        <v>0.2818112872685089</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2188330947666436</v>
+        <v>0.2704871320463442</v>
       </c>
       <c r="K36" t="n">
         <v>45</v>
@@ -4862,1192 +4862,1192 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B37" t="n">
-        <v>8.062257748298549</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C37" t="n">
-        <v>33.01514803843835</v>
+        <v>37.01351104664349</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244198745948737</v>
+        <v>0.2623039929933816</v>
       </c>
       <c r="E37" t="n">
-        <v>8.062257748298549</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F37" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G37" t="n">
-        <v>35.0142828000232</v>
+        <v>33.06055050963308</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2302562584058757</v>
+        <v>0.2889434759062992</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2372275021773063</v>
+        <v>0.2756237344498405</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2265481711052724</v>
+        <v>0.270665460975654</v>
       </c>
       <c r="K37" t="n">
-        <v>45</v>
+        <v>46.01086828130936</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>11.04536101718726</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10.19803902718557</v>
+      </c>
+      <c r="C38" t="n">
+        <v>37.01351104664349</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2869681832885623</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.04987562112089</v>
+      </c>
+      <c r="F38" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B38" t="n">
-        <v>7.071067811865476</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>33.01514803843835</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.2442280878345213</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8.246211251235321</v>
-      </c>
-      <c r="F38" t="n">
-        <v>8.062257748298549</v>
-      </c>
-      <c r="G38" t="n">
-        <v>34</v>
-      </c>
       <c r="H38" t="n">
-        <v>0.2398304264637334</v>
+        <v>0.289340831321046</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2420292571491274</v>
+        <v>0.2881545073048041</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2296094108364156</v>
+        <v>0.2780883466807932</v>
       </c>
       <c r="K38" t="n">
-        <v>46</v>
+        <v>45.0111097397076</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.055385138137417</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B39" t="n">
-        <v>7.071067811865476</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="C39" t="n">
-        <v>33.01514803843835</v>
+        <v>39.01281840626232</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2442280878345213</v>
+        <v>0.2676122088947739</v>
       </c>
       <c r="E39" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F39" t="n">
-        <v>7.071067811865476</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>34</v>
+        <v>27.07397274136177</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2252541038691294</v>
+        <v>0.3518116052473118</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2347410958518253</v>
+        <v>0.3097119070710428</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2333150684093599</v>
+        <v>0.2879474100078471</v>
       </c>
       <c r="K39" t="n">
-        <v>45.0111097397076</v>
+        <v>42.04759208325728</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.082762530298219</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B40" t="n">
-        <v>5.099019513592784</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="C40" t="n">
-        <v>32</v>
+        <v>37.01351104664349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1747153444357969</v>
+        <v>0.2787947556513646</v>
       </c>
       <c r="E40" t="n">
-        <v>5.385164807134504</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>5.099019513592784</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="G40" t="n">
-        <v>34.0147027033899</v>
+        <v>15.29705854077836</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1541125379244081</v>
+        <v>0.557697341054641</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1644139411801026</v>
+        <v>0.4182460483530028</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2214060317309627</v>
+        <v>0.3147094968894398</v>
       </c>
       <c r="K40" t="n">
-        <v>46.01086828130936</v>
+        <v>32.38826948140329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C41" t="n">
-        <v>32.01562118716424</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1717911380774667</v>
+        <v>0.2982410942648727</v>
       </c>
       <c r="E41" t="n">
-        <v>5.385164807134504</v>
+        <v>8</v>
       </c>
       <c r="F41" t="n">
-        <v>5.099019513592784</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>34.13209633175202</v>
+        <v>15.13274595042156</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1535824846330077</v>
+        <v>0.5286548803640718</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1626868113552372</v>
+        <v>0.4134479873144722</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2082197215427198</v>
+        <v>0.3410368368986325</v>
       </c>
       <c r="K41" t="n">
-        <v>47</v>
+        <v>30.59411708155671</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.324555320336759</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="B42" t="n">
-        <v>5.099019513592784</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="C42" t="n">
-        <v>32.01562118716424</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1784062656030785</v>
+        <v>0.2790244994266217</v>
       </c>
       <c r="E42" t="n">
-        <v>5.385164807134504</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>5.099019513592784</v>
+        <v>8</v>
       </c>
       <c r="G42" t="n">
-        <v>33.06055050963308</v>
+        <v>14.31782106327635</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1585603409367372</v>
+        <v>0.5587442366156625</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1684833032699079</v>
+        <v>0.4188843680211422</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1944708817612401</v>
+        <v>0.3696889636128929</v>
       </c>
       <c r="K42" t="n">
-        <v>46.01086828130936</v>
+        <v>29.6141857899217</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.062257748298549</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B43" t="n">
-        <v>8.062257748298549</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="C43" t="n">
-        <v>33.01514803843835</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244198745948737</v>
+        <v>0.275093785849971</v>
       </c>
       <c r="E43" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="F43" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>34.0147027033899</v>
+        <v>14.14213562373095</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2078826874815159</v>
+        <v>0.6029989243462615</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2260407167151264</v>
+        <v>0.4390463550981162</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1912731736744399</v>
+        <v>0.3998673331715552</v>
       </c>
       <c r="K43" t="n">
-        <v>46</v>
+        <v>28.63564212655271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.071067811865476</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B44" t="n">
-        <v>7.071067811865476</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="C44" t="n">
-        <v>33.01514803843835</v>
+        <v>34.05877273185281</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2141764684390597</v>
+        <v>0.3254973988614155</v>
       </c>
       <c r="E44" t="n">
-        <v>8.246211251235321</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>34</v>
+        <v>14.31782106327635</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2252541038691294</v>
+        <v>0.5587442366156625</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2197152861540945</v>
+        <v>0.442120817738539</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1882680117348937</v>
+        <v>0.4263491153050545</v>
       </c>
       <c r="K44" t="n">
-        <v>46</v>
+        <v>28.86173937932362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.055385138137417</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B45" t="n">
-        <v>8.062257748298549</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="C45" t="n">
-        <v>32.01562118716424</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2673326684240442</v>
+        <v>0.3259191188381417</v>
       </c>
       <c r="E45" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F45" t="n">
-        <v>8.246211251235321</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>34.0147027033899</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2424307900951757</v>
+        <v>0.6885155556045592</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2548817292596099</v>
+        <v>0.5072173372213504</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2063615693507952</v>
+        <v>0.444143373078724</v>
       </c>
       <c r="K45" t="n">
-        <v>44.01136216933077</v>
+        <v>28.86173937932362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.062257748298549</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B46" t="n">
-        <v>8.062257748298549</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="C46" t="n">
-        <v>33.01514803843835</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244198745948737</v>
+        <v>0.3028854859646805</v>
       </c>
       <c r="E46" t="n">
-        <v>8.246211251235321</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>34.0147027033899</v>
+        <v>15.29705854077836</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2251567387883458</v>
+        <v>0.5229763603684907</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2346777423685414</v>
+        <v>0.4129309231665856</v>
       </c>
       <c r="J46" t="n">
-        <v>0.220759755553456</v>
+        <v>0.4440399602491467</v>
       </c>
       <c r="K46" t="n">
-        <v>46</v>
+        <v>29.6141857899217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>12.36931687685298</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.70469991071963</v>
+      </c>
+      <c r="C47" t="n">
+        <v>34</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3540296586407736</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B47" t="n">
-        <v>8.062257748298549</v>
-      </c>
-      <c r="C47" t="n">
-        <v>32.01562118716424</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2673326684240442</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8.246211251235321</v>
-      </c>
-      <c r="F47" t="n">
-        <v>8.062257748298549</v>
-      </c>
       <c r="G47" t="n">
-        <v>35.0142828000232</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="H47" t="n">
-        <v>0.232883093631766</v>
+        <v>0.6200244712213335</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2501078810279052</v>
+        <v>0.4870270649310536</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2370846711050555</v>
+        <v>0.457668499631129</v>
       </c>
       <c r="K47" t="n">
-        <v>45</v>
+        <v>29.6141857899217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.062257748298549</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B48" t="n">
-        <v>7.071067811865476</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C48" t="n">
-        <v>32.01562118716424</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2363428382615813</v>
+        <v>0.2982410942648727</v>
       </c>
       <c r="E48" t="n">
-        <v>7.280109889280518</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>7.071067811865476</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>34.0147027033899</v>
+        <v>14.31782106327635</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2109555068919617</v>
+        <v>0.5936657514041415</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2236491725767715</v>
+        <v>0.4459534228345071</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2366063622773845</v>
+        <v>0.4590499131784071</v>
       </c>
       <c r="K48" t="n">
-        <v>46</v>
+        <v>29.6141857899217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.055385138137417</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B49" t="n">
-        <v>8.062257748298549</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C49" t="n">
-        <v>32.01562118716424</v>
+        <v>33.01514803843835</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2673326684240442</v>
+        <v>0.3072705336211836</v>
       </c>
       <c r="E49" t="n">
-        <v>9.219544457292887</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>8.062257748298549</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>34</v>
+        <v>12.36931687685298</v>
       </c>
       <c r="H49" t="n">
-        <v>0.254144150082227</v>
+        <v>0.6467616667635546</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2607384092531356</v>
+        <v>0.4770161001923691</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2448109868971927</v>
+        <v>0.4660289696691732</v>
       </c>
       <c r="K49" t="n">
-        <v>45</v>
+        <v>27.65863337187866</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.055385138137417</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B50" t="n">
-        <v>7.071067811865476</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C50" t="n">
         <v>33.01514803843835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2442280878345213</v>
+        <v>0.3072705336211836</v>
       </c>
       <c r="E50" t="n">
-        <v>9.055385138137417</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>8.062257748298549</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>35</v>
+        <v>12.64911064067352</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2445377555205138</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2443829216775175</v>
+        <v>0.4698630328274297</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2427112253807742</v>
+        <v>0.458558108790389</v>
       </c>
       <c r="K50" t="n">
-        <v>46</v>
+        <v>26.92582403567252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.246211251235321</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B51" t="n">
-        <v>7.071067811865476</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C51" t="n">
-        <v>33.01514803843835</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2319735026671308</v>
+        <v>0.3123739201558514</v>
       </c>
       <c r="E51" t="n">
-        <v>7.280109889280518</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>7.280109889280518</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>34.0147027033899</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2140283263024076</v>
+        <v>0.6181225377691006</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2230009144847692</v>
+        <v>0.465248228962476</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2403758598040198</v>
+        <v>0.4690215699495671</v>
       </c>
       <c r="K51" t="n">
-        <v>45.0111097397076</v>
+        <v>29.12043955712207</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.082762530298219</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="B52" t="n">
-        <v>5.099019513592784</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="C52" t="n">
-        <v>33.01514803843835</v>
+        <v>35.05709628591621</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1693432061984465</v>
+        <v>0.3072225242623949</v>
       </c>
       <c r="E52" t="n">
-        <v>5.385164807134504</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="F52" t="n">
-        <v>5.099019513592784</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
-        <v>34.05877273185281</v>
+        <v>14.86606874731851</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1539131254562522</v>
+        <v>0.6072683183775196</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1616281658273493</v>
+        <v>0.4572454213199573</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2226799167639086</v>
+        <v>0.4630652412273479</v>
       </c>
       <c r="K52" t="n">
-        <v>48</v>
+        <v>29.12043955712207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.082762530298219</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="C53" t="n">
-        <v>33.01514803843835</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1678435989048868</v>
+        <v>0.2761622978017694</v>
       </c>
       <c r="E53" t="n">
-        <v>5.099019513592784</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>6.082762530298219</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G53" t="n">
-        <v>34.0147027033899</v>
+        <v>24.51530134426253</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1643668936547346</v>
+        <v>0.3682472608553726</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1661052462798107</v>
+        <v>0.3222047793285711</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2111711315045165</v>
+        <v>0.4383155125261607</v>
       </c>
       <c r="K53" t="n">
-        <v>46</v>
+        <v>38.47076812334269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.071067811865476</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B54" t="n">
-        <v>6.082762530298219</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C54" t="n">
-        <v>32.01562118716424</v>
+        <v>37</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2054283167780195</v>
+        <v>0.2756226764104208</v>
       </c>
       <c r="E54" t="n">
-        <v>6.324555320336759</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>6.082762530298219</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G54" t="n">
-        <v>34.0147027033899</v>
+        <v>30.06659275674582</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1823816888659513</v>
+        <v>0.3168863411345821</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1939050028219854</v>
+        <v>0.2962545087725014</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1978044502182864</v>
+        <v>0.402163194242187</v>
       </c>
       <c r="K54" t="n">
-        <v>46</v>
+        <v>43.10452412450461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.082762530298219</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B55" t="n">
-        <v>5.099019513592784</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C55" t="n">
-        <v>33.01514803843835</v>
+        <v>37</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1693432061984465</v>
+        <v>0.2888970123606016</v>
       </c>
       <c r="E55" t="n">
-        <v>5.385164807134504</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F55" t="n">
-        <v>5.099019513592784</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>34.05877273185281</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1539131254562522</v>
+        <v>0.3131264501149101</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1616281658273493</v>
+        <v>0.3010117312377559</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1812534990482528</v>
+        <v>0.3683929339242523</v>
       </c>
       <c r="K55" t="n">
-        <v>47.01063709417264</v>
+        <v>44.04543109109048</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.082762530298219</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B56" t="n">
-        <v>5.099019513592784</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C56" t="n">
-        <v>32.01562118716424</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1746300966412925</v>
+        <v>0.2868948041705384</v>
       </c>
       <c r="E56" t="n">
-        <v>5.385164807134504</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F56" t="n">
-        <v>5.099019513592784</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G56" t="n">
-        <v>34.0147027033899</v>
+        <v>33.06055050963308</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1541125379244081</v>
+        <v>0.3039839163655967</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1643713172828503</v>
+        <v>0.2954393602680676</v>
       </c>
       <c r="J56" t="n">
-        <v>0.169527579607869</v>
+        <v>0.3344311601853706</v>
       </c>
       <c r="K56" t="n">
-        <v>46</v>
+        <v>45.04442251822083</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.082762530298219</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B57" t="n">
-        <v>5.099019513592784</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C57" t="n">
-        <v>33.01514803843835</v>
+        <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1693432061984465</v>
+        <v>0.2756741127674572</v>
       </c>
       <c r="E57" t="n">
-        <v>6.082762530298219</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>34.0147027033899</v>
+        <v>32</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1629113537598803</v>
+        <v>0.2976543065800139</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1661272799791634</v>
+        <v>0.2866642096737356</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1704274024382318</v>
+        <v>0.3003149178561263</v>
       </c>
       <c r="K57" t="n">
-        <v>47</v>
+        <v>45.0111097397076</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.082762530298219</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B58" t="n">
-        <v>6.082762530298219</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C58" t="n">
-        <v>32.01562118716424</v>
+        <v>37.01351104664349</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1899935814063458</v>
+        <v>0.249085920156957</v>
       </c>
       <c r="E58" t="n">
-        <v>6.324555320336759</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>6.082762530298219</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G58" t="n">
-        <v>34.0147027033899</v>
+        <v>29.01723625709382</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1823816888659513</v>
+        <v>0.3111148315119679</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1861876351361486</v>
+        <v>0.2801003758344625</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1744438802094994</v>
+        <v>0.2918940371573046</v>
       </c>
       <c r="K58" t="n">
-        <v>47.01063709417264</v>
+        <v>43.01162633521314</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>10.19803902718557</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9.486832980505138</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36.01388621073821</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.273295582327648</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" t="n">
         <v>8.062257748298549</v>
       </c>
-      <c r="B59" t="n">
-        <v>7.071067811865476</v>
-      </c>
-      <c r="C59" t="n">
-        <v>34</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.2225489052965298</v>
-      </c>
-      <c r="E59" t="n">
-        <v>8.246211251235321</v>
-      </c>
-      <c r="F59" t="n">
-        <v>7.280109889280518</v>
-      </c>
       <c r="G59" t="n">
-        <v>35.0142828000232</v>
+        <v>15.29705854077836</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2217141106272432</v>
+        <v>0.557697341054641</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2221315079618865</v>
+        <v>0.4154964616911445</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1800891812374796</v>
+        <v>0.3157424277410332</v>
       </c>
       <c r="K59" t="n">
-        <v>46</v>
+        <v>32.38826948140329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B60" t="n">
-        <v>8.062257748298549</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C60" t="n">
-        <v>33.01514803843835</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2592392265893599</v>
+        <v>0.2862674204049153</v>
       </c>
       <c r="E60" t="n">
-        <v>8.246211251235321</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>8.246211251235321</v>
+        <v>8</v>
       </c>
       <c r="G60" t="n">
-        <v>35</v>
+        <v>17.46424919657298</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2356060357495806</v>
+        <v>0.4580786674510946</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2474226311694703</v>
+        <v>0.372173043928005</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1972480743059038</v>
+        <v>0.329974690279083</v>
       </c>
       <c r="K60" t="n">
-        <v>46.01086828130936</v>
+        <v>30.4138126514911</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.062257748298549</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B61" t="n">
-        <v>8.062257748298549</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="C61" t="n">
-        <v>34.0147027033899</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2370227315699886</v>
+        <v>0.3119021583941662</v>
       </c>
       <c r="E61" t="n">
-        <v>8.246211251235321</v>
+        <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>7.280109889280518</v>
+        <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>35</v>
+        <v>16.49242250247064</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2218045877216549</v>
+        <v>0.5153882032022076</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2294136596458217</v>
+        <v>0.4136451807981869</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2102565427784981</v>
+        <v>0.3536158543851068</v>
       </c>
       <c r="K61" t="n">
-        <v>47</v>
+        <v>30.80584360149873</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.055385138137417</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="C62" t="n">
-        <v>34.0147027033899</v>
+        <v>35.05709628591621</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2507060738831282</v>
+        <v>0.3030857416066811</v>
       </c>
       <c r="E62" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="F62" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G62" t="n">
-        <v>35</v>
+        <v>16.49242250247064</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2445377555205138</v>
+        <v>0.5490633736057198</v>
       </c>
       <c r="I62" t="n">
-        <v>0.247621914701821</v>
+        <v>0.4260745576062004</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2265554697230296</v>
+        <v>0.3814979239715999</v>
       </c>
       <c r="K62" t="n">
-        <v>46.01086828130936</v>
+        <v>30.08321791298265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>11.40175425099138</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10.77032961426901</v>
+      </c>
+      <c r="C63" t="n">
+        <v>35.05709628591621</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3162281850788619</v>
+      </c>
+      <c r="E63" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B63" t="n">
-        <v>8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>34.0147027033899</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.2507060738831282</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.219544457292887</v>
-      </c>
       <c r="F63" t="n">
-        <v>7.071067811865476</v>
+        <v>9</v>
       </c>
       <c r="G63" t="n">
-        <v>35.0142828000232</v>
+        <v>16.49242250247064</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2326281015407171</v>
+        <v>0.5473842649687345</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2416670877119227</v>
+        <v>0.4318062250237982</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2376513602381845</v>
+        <v>0.411839093809467</v>
       </c>
       <c r="K63" t="n">
-        <v>46</v>
+        <v>29.8328677803526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>11.40175425099138</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10.77032961426901</v>
+      </c>
+      <c r="C64" t="n">
+        <v>35.05709628591621</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3162281850788619</v>
+      </c>
+      <c r="E64" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B64" t="n">
-        <v>8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>34.05877273185281</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.2503816751181216</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.219544457292887</v>
-      </c>
       <c r="F64" t="n">
-        <v>8.062257748298549</v>
+        <v>9</v>
       </c>
       <c r="G64" t="n">
-        <v>35.0142828000232</v>
+        <v>15.8113883008419</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2467821817784026</v>
+        <v>0.5709614106806813</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2485819284482621</v>
+        <v>0.4435947978797716</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2429414443354595</v>
+        <v>0.4174587610471924</v>
       </c>
       <c r="K64" t="n">
-        <v>47</v>
+        <v>31.04834939252005</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.062257748298549</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="B65" t="n">
-        <v>8.062257748298549</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="C65" t="n">
-        <v>34.0147027033899</v>
+        <v>35.05709628591621</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2370227315699886</v>
+        <v>0.3115212478204695</v>
       </c>
       <c r="E65" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F65" t="n">
-        <v>7.280109889280518</v>
+        <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>36</v>
+        <v>18.68154169226941</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2156433491738311</v>
+        <v>0.5098582315881324</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2263330403719098</v>
+        <v>0.4106897397043009</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2387235261759474</v>
+        <v>0.4251621002024516</v>
       </c>
       <c r="K65" t="n">
-        <v>47.01063709417264</v>
+        <v>30.80584360149873</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.071067811865476</v>
+        <v>12.36931687685298</v>
       </c>
       <c r="B66" t="n">
-        <v>6.082762530298219</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="C66" t="n">
-        <v>34</v>
+        <v>38.01315561749642</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1934386815024073</v>
+        <v>0.3126690055284858</v>
       </c>
       <c r="E66" t="n">
-        <v>6.082762530298219</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>6.082762530298219</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G66" t="n">
-        <v>36.05551275463989</v>
+        <v>29.1547594742265</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1687054784573947</v>
+        <v>0.3610023886448022</v>
       </c>
       <c r="I66" t="n">
-        <v>0.181072079979901</v>
+        <v>0.336835697086644</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2290552102427633</v>
+        <v>0.409800203460143</v>
       </c>
       <c r="K66" t="n">
-        <v>47</v>
+        <v>41.19465984809196</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.055385138137417</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B67" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C67" t="n">
-        <v>35.05709628591621</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2441394852960595</v>
+        <v>0.2968074424068979</v>
       </c>
       <c r="E67" t="n">
-        <v>9.219544457292887</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F67" t="n">
-        <v>7.280109889280518</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G67" t="n">
-        <v>36.01388621073821</v>
+        <v>34.05877273185281</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2290735058419456</v>
+        <v>0.3096887372365482</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2366064955690025</v>
+        <v>0.303248089821723</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2268521264161996</v>
+        <v>0.3852349099032476</v>
       </c>
       <c r="K67" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>11.04536101718726</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.055385138137417</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35.0142828000232</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2870363826973969</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11.04536101718726</v>
+      </c>
+      <c r="F68" t="n">
         <v>10.04987562112089</v>
       </c>
-      <c r="B68" t="n">
-        <v>8.062257748298549</v>
-      </c>
-      <c r="C68" t="n">
-        <v>36.05551275463989</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.2511700983518621</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9.219544457292887</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8.062257748298549</v>
-      </c>
       <c r="G68" t="n">
-        <v>37.05401462729781</v>
+        <v>34</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2331974332527504</v>
+        <v>0.310224068210414</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2421837658023062</v>
+        <v>0.2986302254539054</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2269554620342763</v>
+        <v>0.358599709989269</v>
       </c>
       <c r="K68" t="n">
-        <v>50.00999900019995</v>
+        <v>45.0111097397076</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.219544457292887</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B69" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C69" t="n">
-        <v>36.01388621073821</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2261712631321222</v>
+        <v>0.2831385906665145</v>
       </c>
       <c r="E69" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F69" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G69" t="n">
-        <v>38.01315561749642</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="H69" t="n">
-        <v>0.214510854658269</v>
+        <v>0.2728209637817521</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2203410588951956</v>
+        <v>0.2779797772241333</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2213072881236631</v>
+        <v>0.3254767058581414</v>
       </c>
       <c r="K69" t="n">
-        <v>52.00961449578337</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>10.04987562112089</v>
+      </c>
+      <c r="B70" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B70" t="n">
-        <v>8.062257748298549</v>
-      </c>
       <c r="C70" t="n">
-        <v>37.01351104664349</v>
+        <v>33.01514803843835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2312350598794146</v>
+        <v>0.289340831321046</v>
       </c>
       <c r="E70" t="n">
-        <v>9.219544457292887</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F70" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G70" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2298125751122132</v>
+        <v>0.3013605234044022</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2305238174958139</v>
+        <v>0.2953506773627241</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2221454435484439</v>
+        <v>0.302408893389826</v>
       </c>
       <c r="K70" t="n">
-        <v>52</v>
+        <v>44.01136216933077</v>
       </c>
     </row>
     <row r="71">
@@ -6058,241 +6058,241 @@
         <v>9.055385138137417</v>
       </c>
       <c r="C71" t="n">
-        <v>37.05401462729781</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2578028447312076</v>
+        <v>0.2809597170479163</v>
       </c>
       <c r="E71" t="n">
-        <v>9.219544457292887</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="F71" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="G71" t="n">
-        <v>38</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2404595999398724</v>
+        <v>0.2830162052747295</v>
       </c>
       <c r="I71" t="n">
-        <v>0.24913122233554</v>
+        <v>0.2819879611613229</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2357572720195717</v>
+        <v>0.2914393462047618</v>
       </c>
       <c r="K71" t="n">
-        <v>51.0098029794274</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.04987562112089</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B72" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="C72" t="n">
-        <v>37.01351104664349</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258084956263435</v>
+        <v>0.2830162052747295</v>
       </c>
       <c r="E72" t="n">
-        <v>9.219544457292887</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F72" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2360237257909217</v>
+        <v>0.3032887929802834</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2470543410271783</v>
+        <v>0.2931524991275065</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2378468411112069</v>
+        <v>0.2894202280659185</v>
       </c>
       <c r="K72" t="n">
-        <v>52</v>
+        <v>44.01136216933077</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.04987562112089</v>
+        <v>10</v>
       </c>
       <c r="B73" t="n">
-        <v>9.055385138137417</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>37.01351104664349</v>
+        <v>31.14482300479487</v>
       </c>
       <c r="D73" t="n">
-        <v>0.258084956263435</v>
+        <v>0.3050266170572694</v>
       </c>
       <c r="E73" t="n">
+        <v>10.44030650891055</v>
+      </c>
+      <c r="F73" t="n">
         <v>9.219544457292887</v>
       </c>
-      <c r="F73" t="n">
-        <v>8.062257748298549</v>
-      </c>
       <c r="G73" t="n">
-        <v>37</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2335378676431275</v>
+        <v>0.2729482018569477</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2458114119532812</v>
+        <v>0.2889874094571085</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2385723703414019</v>
+        <v>0.2874916648665591</v>
       </c>
       <c r="K73" t="n">
-        <v>51</v>
+        <v>43.10452412450461</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.19803902718557</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B74" t="n">
-        <v>9.219544457292887</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
-        <v>37.01351104664349</v>
+        <v>21.84032966784156</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2623039929933816</v>
+        <v>0.413349647480889</v>
       </c>
       <c r="E74" t="n">
-        <v>9.219544457292887</v>
+        <v>12.08304597359457</v>
       </c>
       <c r="F74" t="n">
-        <v>9.055385138137417</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="G74" t="n">
-        <v>38</v>
+        <v>39.20459156782532</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2404595999398724</v>
+        <v>0.302833785708564</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2513817964666271</v>
+        <v>0.3580917165947265</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2447805178556881</v>
+        <v>0.3035140527406777</v>
       </c>
       <c r="K74" t="n">
-        <v>50</v>
+        <v>36.40054944640259</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>11.04536101718726</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B75" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="C75" t="n">
-        <v>37.01351104664349</v>
+        <v>20.6155281280883</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2715325510459441</v>
+        <v>0.4669641264026247</v>
       </c>
       <c r="E75" t="n">
-        <v>10.04987562112089</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="F75" t="n">
-        <v>9.055385138137417</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="G75" t="n">
-        <v>38</v>
+        <v>37.21558813185679</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2513850099902409</v>
+        <v>0.2934531181196755</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2614587805180925</v>
+        <v>0.3802086222611502</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2509675104601438</v>
+        <v>0.3204856417203629</v>
       </c>
       <c r="K75" t="n">
-        <v>50</v>
+        <v>34.20526275297414</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.19803902718557</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B76" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C76" t="n">
-        <v>37.01351104664349</v>
+        <v>22.13594362117865</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260086433587188</v>
+        <v>0.4127885828627086</v>
       </c>
       <c r="E76" t="n">
-        <v>9.219544457292887</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F76" t="n">
-        <v>8.062257748298549</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G76" t="n">
-        <v>38</v>
+        <v>37.48332962798263</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2273921342840979</v>
+        <v>0.2750447681770533</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2437392839356429</v>
+        <v>0.343916675519881</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2498891227801644</v>
+        <v>0.3328713845920745</v>
       </c>
       <c r="K76" t="n">
-        <v>51</v>
+        <v>35.4400902933387</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11.04536101718726</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B77" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C77" t="n">
-        <v>37.01351104664349</v>
+        <v>21.84032966784156</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2715325510459441</v>
+        <v>0.4221339420012537</v>
       </c>
       <c r="E77" t="n">
-        <v>9.219544457292887</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F77" t="n">
-        <v>9.055385138137417</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G77" t="n">
-        <v>39</v>
+        <v>37.33630940518894</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2342939691721834</v>
+        <v>0.2761278196017881</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2529132601090637</v>
+        <v>0.3491308808015209</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2510609065965415</v>
+        <v>0.3440670609268774</v>
       </c>
       <c r="K77" t="n">
-        <v>52</v>
+        <v>35.17101079013795</v>
       </c>
     </row>
     <row r="78">
@@ -6300,69 +6300,69 @@
         <v>9.055385138137417</v>
       </c>
       <c r="B78" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C78" t="n">
-        <v>36.01388621073821</v>
+        <v>22.13594362117865</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2514414880179575</v>
+        <v>0.4127885828627086</v>
       </c>
       <c r="E78" t="n">
-        <v>9.219544457292887</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="F78" t="n">
-        <v>8.062257748298549</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G78" t="n">
-        <v>37.01351104664349</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2334526192856082</v>
+        <v>0.2859356743433154</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2424470536517829</v>
+        <v>0.349362128603012</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2503880349362418</v>
+        <v>0.3561420047560581</v>
       </c>
       <c r="K78" t="n">
-        <v>50</v>
+        <v>35.4400902933387</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.219544457292887</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B79" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="C79" t="n">
-        <v>36.01388621073821</v>
+        <v>22.80350850198276</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2537205994445177</v>
+        <v>0.4221592515829068</v>
       </c>
       <c r="E79" t="n">
-        <v>8.246211251235321</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F79" t="n">
-        <v>8.062257748298549</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="G79" t="n">
-        <v>38</v>
+        <v>37.33630940518894</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2145851184149194</v>
+        <v>0.2884679762368844</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2341528589297185</v>
+        <v>0.3553136139098956</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2469422474288601</v>
+        <v>0.3555863842190919</v>
       </c>
       <c r="K79" t="n">
-        <v>50</v>
+        <v>35.4400902933387</v>
       </c>
     </row>
     <row r="80">
@@ -6370,69 +6370,69 @@
         <v>9.219544457292887</v>
       </c>
       <c r="B80" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C80" t="n">
-        <v>37.01351104664349</v>
+        <v>22.13594362117865</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2334526192856082</v>
+        <v>0.4127885828627086</v>
       </c>
       <c r="E80" t="n">
-        <v>9.219544457292887</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F80" t="n">
-        <v>8.246211251235321</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="G80" t="n">
-        <v>37</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2360237257909217</v>
+        <v>0.2852902420792721</v>
       </c>
       <c r="I80" t="n">
-        <v>0.234738172538265</v>
+        <v>0.3490394124709904</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2415981258328946</v>
+        <v>0.3493525422610599</v>
       </c>
       <c r="K80" t="n">
-        <v>50</v>
+        <v>35.73513677041127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.04987562112089</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="B81" t="n">
-        <v>9.055385138137417</v>
+        <v>8.246211251235321</v>
       </c>
       <c r="C81" t="n">
-        <v>36.01388621073821</v>
+        <v>20.6155281280883</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2652485300734043</v>
+        <v>0.4300894966542111</v>
       </c>
       <c r="E81" t="n">
-        <v>9.055385138137417</v>
+        <v>10.295630140987</v>
       </c>
       <c r="F81" t="n">
-        <v>8.062257748298549</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="G81" t="n">
-        <v>38</v>
+        <v>37.8549864614954</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2252321432425785</v>
+        <v>0.2788573704662866</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2452403366579914</v>
+        <v>0.3544734335602489</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2418983363773643</v>
+        <v>0.3514638938691336</v>
       </c>
       <c r="K81" t="n">
-        <v>50.00999900019995</v>
+        <v>34.53983207834109</v>
       </c>
     </row>
     <row r="82">
@@ -6440,349 +6440,349 @@
         <v>9.219544457292887</v>
       </c>
       <c r="B82" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C82" t="n">
-        <v>36.01388621073821</v>
+        <v>20.591260281974</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2537205994445177</v>
+        <v>0.4477406594371428</v>
       </c>
       <c r="E82" t="n">
-        <v>8.246211251235321</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F82" t="n">
-        <v>8.062257748298549</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="G82" t="n">
-        <v>38</v>
+        <v>38.3275357934736</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2145851184149194</v>
+        <v>0.2869607092981511</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2341528589297185</v>
+        <v>0.367350684367647</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2381462561414953</v>
+        <v>0.3551078545823588</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>35.34119409414458</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.055385138137417</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="B83" t="n">
-        <v>8.246211251235321</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>21.47091055358389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2402999498523992</v>
+        <v>0.435621428143754</v>
       </c>
       <c r="E83" t="n">
-        <v>8.246211251235321</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="F83" t="n">
-        <v>8.062257748298549</v>
+        <v>10.63014581273465</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>39.84971769034255</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2203847162099172</v>
+        <v>0.2690960047167935</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2303423330311582</v>
+        <v>0.3523587164302737</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2357253120173703</v>
+        <v>0.3557071721478111</v>
       </c>
       <c r="K83" t="n">
-        <v>51.0098029794274</v>
+        <v>35.77708763999664</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.04987562112089</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B84" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2653508438785876</v>
+        <v>0.4614874356184026</v>
       </c>
       <c r="E84" t="n">
-        <v>9.219544457292887</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="F84" t="n">
-        <v>8.062257748298549</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>37.01351104664349</v>
+        <v>39.84971769034255</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2334526192856082</v>
+        <v>0.2717949466796385</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2494017315820979</v>
+        <v>0.3666411911490205</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2387750865478462</v>
+        <v>0.3579726875956361</v>
       </c>
       <c r="K84" t="n">
-        <v>50.00999900019995</v>
+        <v>37.57658845611187</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.219544457292887</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B85" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C85" t="n">
-        <v>36.01388621073821</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2537205994445177</v>
+        <v>0.4614874356184026</v>
       </c>
       <c r="E85" t="n">
-        <v>10.19803902718557</v>
+        <v>10.295630140987</v>
       </c>
       <c r="F85" t="n">
-        <v>8.246211251235321</v>
+        <v>10.63014581273465</v>
       </c>
       <c r="G85" t="n">
-        <v>38.01315561749642</v>
+        <v>39.56008088970496</v>
       </c>
       <c r="H85" t="n">
-        <v>0.242603514215109</v>
+        <v>0.2644809550827705</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2481620568298134</v>
+        <v>0.3629841953505865</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2414598634061559</v>
+        <v>0.3607616441715554</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>36.6742416417845</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>10.44030650891055</v>
+      </c>
+      <c r="B86" t="n">
         <v>10.19803902718557</v>
       </c>
-      <c r="B86" t="n">
-        <v>9.055385138137417</v>
-      </c>
       <c r="C86" t="n">
-        <v>36.01388621073821</v>
+        <v>22.82542442102665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2673055617027831</v>
+        <v>0.4520911671873271</v>
       </c>
       <c r="E86" t="n">
-        <v>9.219544457292887</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="F86" t="n">
-        <v>9.219544457292887</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>37</v>
+        <v>39.56008088970496</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2491768772241321</v>
+        <v>0.2737848773626731</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2582412194634576</v>
+        <v>0.362938022275</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2440600399672491</v>
+        <v>0.3624545619145055</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>37.57658845611187</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.04987562112089</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="B87" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C87" t="n">
-        <v>36.05551275463989</v>
+        <v>26</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2649422973023688</v>
+        <v>0.3545978637420341</v>
       </c>
       <c r="E87" t="n">
-        <v>10.19803902718557</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="F87" t="n">
-        <v>9.219544457292887</v>
+        <v>9.433981132056603</v>
       </c>
       <c r="G87" t="n">
-        <v>37</v>
+        <v>41.48493702538308</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2623997768172764</v>
+        <v>0.2440721429329634</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2636710370598226</v>
+        <v>0.2993350033374987</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2499636755932699</v>
+        <v>0.3488514257084759</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>41.23105625617661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
+        <v>10.19803902718557</v>
+      </c>
+      <c r="B88" t="n">
+        <v>10.04987562112089</v>
+      </c>
+      <c r="C88" t="n">
+        <v>29.41088233970548</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3442248759223933</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10.77032961426901</v>
+      </c>
+      <c r="F88" t="n">
         <v>11.18033988749895</v>
       </c>
-      <c r="B88" t="n">
-        <v>9.055385138137417</v>
-      </c>
-      <c r="C88" t="n">
-        <v>36.05551275463989</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.2806190160620068</v>
-      </c>
-      <c r="E88" t="n">
-        <v>10.44030650891055</v>
-      </c>
-      <c r="F88" t="n">
-        <v>9.219544457292887</v>
-      </c>
       <c r="G88" t="n">
-        <v>37.01351104664349</v>
+        <v>39.81205847478876</v>
       </c>
       <c r="H88" t="n">
-        <v>0.26557668281494</v>
+        <v>0.275678655446419</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2730978494384734</v>
+        <v>0.3099517656844062</v>
       </c>
       <c r="J88" t="n">
-        <v>0.258514778874733</v>
+        <v>0.3403700355593023</v>
       </c>
       <c r="K88" t="n">
-        <v>50.00999900019995</v>
+        <v>42.72001872658765</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.219544457292887</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B89" t="n">
-        <v>9.219544457292887</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C89" t="n">
-        <v>37.01351104664349</v>
+        <v>32.89376840679705</v>
       </c>
       <c r="D89" t="n">
-        <v>0.249085920156957</v>
+        <v>0.3227087764172515</v>
       </c>
       <c r="E89" t="n">
-        <v>9.219544457292887</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="F89" t="n">
-        <v>8.246211251235321</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>38.01315561749642</v>
+        <v>41</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2297330414274946</v>
+        <v>0.264169558410861</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2394094807922258</v>
+        <v>0.2934391674140562</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2565163287167586</v>
+        <v>0.3257296308123095</v>
       </c>
       <c r="K89" t="n">
-        <v>51</v>
+        <v>44.9221548904324</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10.19803902718557</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B90" t="n">
-        <v>8.246211251235321</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="C90" t="n">
-        <v>37.05401462729781</v>
+        <v>31.01612483854165</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2488832919177528</v>
+        <v>0.3582926787338022</v>
       </c>
       <c r="E90" t="n">
-        <v>9.486832980505138</v>
+        <v>12.52996408614167</v>
       </c>
       <c r="F90" t="n">
-        <v>9.219544457292887</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="G90" t="n">
-        <v>37</v>
+        <v>40.79215610874228</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2527888842945679</v>
+        <v>0.2965259768488634</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2508360881061604</v>
+        <v>0.3274093277913328</v>
       </c>
       <c r="J90" t="n">
-        <v>0.257051134972028</v>
+        <v>0.3186146573004588</v>
       </c>
       <c r="K90" t="n">
-        <v>51.0098029794274</v>
+        <v>43.01162633521314</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.062257748298549</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="B91" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C91" t="n">
-        <v>36.12478373637688</v>
+        <v>20.12461179749811</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2257241056243555</v>
+        <v>0.5274689450471581</v>
       </c>
       <c r="E91" t="n">
-        <v>8.246211251235321</v>
+        <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>7.280109889280518</v>
+        <v>13.0384048104053</v>
       </c>
       <c r="G91" t="n">
-        <v>36.01388621073821</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="H91" t="n">
-        <v>0.215560201552011</v>
+        <v>0.336941476796923</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2206421535881833</v>
+        <v>0.4322052109220406</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2495313217969731</v>
+        <v>0.3324680950298669</v>
       </c>
       <c r="K91" t="n">
-        <v>49.01020301937138</v>
+        <v>34.53983207834109</v>
       </c>
     </row>
     <row r="92">
@@ -6790,699 +6790,699 @@
         <v>10.04987562112089</v>
       </c>
       <c r="B92" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C92" t="n">
-        <v>35.22782990761707</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2711671540563347</v>
+        <v>0.4353084347860404</v>
       </c>
       <c r="E92" t="n">
-        <v>9.219544457292887</v>
+        <v>12.08304597359457</v>
       </c>
       <c r="F92" t="n">
-        <v>9.219544457292887</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="G92" t="n">
-        <v>37.01351104664349</v>
+        <v>41.43669871020132</v>
       </c>
       <c r="H92" t="n">
-        <v>0.249085920156957</v>
+        <v>0.2807099332863395</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2601265371066458</v>
+        <v>0.35800918403619</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2488224218063377</v>
+        <v>0.3442029311696051</v>
       </c>
       <c r="K92" t="n">
-        <v>50.08991914547278</v>
+        <v>37.64306044943742</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.04987562112089</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B93" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="C93" t="n">
-        <v>36.05551275463989</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2649422973023688</v>
+        <v>0.4169791872878771</v>
       </c>
       <c r="E93" t="n">
-        <v>9.219544457292887</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="F93" t="n">
-        <v>8.246211251235321</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="G93" t="n">
-        <v>35.12833614050059</v>
+        <v>39.6232255123179</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2485992453310559</v>
+        <v>0.2887831505678932</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2567707713167123</v>
+        <v>0.3528811689278851</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2455570061819856</v>
+        <v>0.3527888118183009</v>
       </c>
       <c r="K93" t="n">
-        <v>48.0936586256442</v>
+        <v>35.73513677041127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.062257748298549</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B94" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C94" t="n">
-        <v>36.22154055254967</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2225818566883412</v>
+        <v>0.4137703525312043</v>
       </c>
       <c r="E94" t="n">
-        <v>7.615773105863909</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F94" t="n">
-        <v>7.280109889280518</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G94" t="n">
-        <v>36.12478373637688</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2061726251961557</v>
+        <v>0.2779027789810247</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2143772409422485</v>
+        <v>0.3458365657561144</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2405505582119901</v>
+        <v>0.3632682914867126</v>
       </c>
       <c r="K94" t="n">
-        <v>51.0881590977792</v>
+        <v>36.68787265568828</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B95" t="n">
-        <v>9.055385138137417</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C95" t="n">
-        <v>36.12478373637688</v>
+        <v>22.47220505424423</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2506696013523491</v>
+        <v>0.4320355621001051</v>
       </c>
       <c r="E95" t="n">
-        <v>9.219544457292887</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="F95" t="n">
-        <v>8.062257748298549</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G95" t="n">
-        <v>36.05551275463989</v>
+        <v>39.6232255123179</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2396554768641792</v>
+        <v>0.2776191206956038</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2451625391082641</v>
+        <v>0.3548273413978544</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2394158484124108</v>
+        <v>0.3687518942080169</v>
       </c>
       <c r="K95" t="n">
-        <v>49.04079934095692</v>
+        <v>34.78505426185217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B96" t="n">
         <v>9.055385138137417</v>
       </c>
       <c r="C96" t="n">
-        <v>36.05551275463989</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2511511956509925</v>
+        <v>0.4169791872878771</v>
       </c>
       <c r="E96" t="n">
-        <v>9.219544457292887</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F96" t="n">
-        <v>8.062257748298549</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G96" t="n">
-        <v>36.05551275463989</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2396554768641792</v>
+        <v>0.2725971748946791</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2454033362575858</v>
+        <v>0.3447881810912781</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2443680849462913</v>
+        <v>0.3512684882418644</v>
       </c>
       <c r="K96" t="n">
-        <v>48.04164859785725</v>
+        <v>36.68787265568828</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B97" t="n">
-        <v>8.062257748298549</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C97" t="n">
-        <v>35.0142828000232</v>
+        <v>24.04163056034261</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2302562584058757</v>
+        <v>0.4038324987097243</v>
       </c>
       <c r="E97" t="n">
-        <v>8.246211251235321</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F97" t="n">
-        <v>7.071067811865476</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G97" t="n">
-        <v>34.05877273185281</v>
+        <v>38.8329756778952</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2248653993450505</v>
+        <v>0.2654855449025262</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2275608288754631</v>
+        <v>0.3346590218061253</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2378549433000548</v>
+        <v>0.3465984557958515</v>
       </c>
       <c r="K97" t="n">
-        <v>47.0425339453563</v>
+        <v>37.64306044943742</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B98" t="n">
-        <v>8.062257748298549</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="C98" t="n">
-        <v>35.0142828000232</v>
+        <v>24.04163056034261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2444380052591656</v>
+        <v>0.4180197177515264</v>
       </c>
       <c r="E98" t="n">
-        <v>9.055385138137417</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F98" t="n">
-        <v>8.246211251235321</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G98" t="n">
-        <v>36</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2402999498523992</v>
+        <v>0.2668158632953279</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2423689775557824</v>
+        <v>0.3424177905234271</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2349745845478688</v>
+        <v>0.3445057801149599</v>
       </c>
       <c r="K98" t="n">
-        <v>46.01086828130936</v>
+        <v>36.68787265568828</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C99" t="n">
-        <v>35.0142828000232</v>
+        <v>21.54065922853801</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2578288586011743</v>
+        <v>0.4734320764739993</v>
       </c>
       <c r="E99" t="n">
-        <v>9.219544457292887</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F99" t="n">
-        <v>8.246211251235321</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="G99" t="n">
-        <v>37.01351104664349</v>
+        <v>39.81205847478876</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2359375700202867</v>
+        <v>0.2762604416425823</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2468832143107305</v>
+        <v>0.3748462590582908</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2414757792215652</v>
+        <v>0.3503077187753951</v>
       </c>
       <c r="K99" t="n">
-        <v>48.04164859785725</v>
+        <v>37.33630940518894</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.055385138137417</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C100" t="n">
-        <v>35.0142828000232</v>
+        <v>21.93171219946131</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2292690847022973</v>
+        <v>0.4264686967362606</v>
       </c>
       <c r="E100" t="n">
-        <v>8.062257748298549</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F100" t="n">
-        <v>7.071067811865476</v>
+        <v>10.81665382639197</v>
       </c>
       <c r="G100" t="n">
-        <v>35.05709628591621</v>
+        <v>38.3275357934736</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2158382633396204</v>
+        <v>0.2869607092981511</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2225536740209589</v>
+        <v>0.3567147030172059</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2369540062041041</v>
+        <v>0.3506851910992655</v>
       </c>
       <c r="K100" t="n">
-        <v>47.01063709417264</v>
+        <v>35.4682957019364</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B101" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C101" t="n">
-        <v>33</v>
+        <v>21.54065922853801</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2585190567924023</v>
+        <v>0.4790555692175272</v>
       </c>
       <c r="E101" t="n">
-        <v>8.062257748298549</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>10.295630140987</v>
       </c>
       <c r="G101" t="n">
-        <v>35.22782990761707</v>
+        <v>38.07886552931954</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2279768267080442</v>
+        <v>0.2819933016642804</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2432479417502232</v>
+        <v>0.3805244354409038</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2365229273026316</v>
+        <v>0.3578324419691906</v>
       </c>
       <c r="K101" t="n">
-        <v>44.10215414239989</v>
+        <v>36.40054944640259</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.385164807134504</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="B102" t="n">
-        <v>4.47213595499958</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C102" t="n">
-        <v>31.14482300479487</v>
+        <v>24.35159132377184</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1582494265678844</v>
+        <v>0.4036666578543398</v>
       </c>
       <c r="E102" t="n">
-        <v>4.242640687119285</v>
+        <v>12.08304597359457</v>
       </c>
       <c r="F102" t="n">
-        <v>5.656854249492381</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="G102" t="n">
-        <v>32.55764119219941</v>
+        <v>40.024992192379</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1520302849670743</v>
+        <v>0.2966265383532836</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1551398557674793</v>
+        <v>0.3501465981038117</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2220387326810349</v>
+        <v>0.3609299572287279</v>
       </c>
       <c r="K102" t="n">
-        <v>49.36598018878993</v>
+        <v>38.27531841800928</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11.40175425099138</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B103" t="n">
-        <v>10.19803902718557</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="C103" t="n">
-        <v>37.33630940518894</v>
+        <v>27.89265136196271</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2892598869878532</v>
+        <v>0.3068486151477759</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="F103" t="n">
-        <v>10.04987562112089</v>
+        <v>9.848857801796104</v>
       </c>
       <c r="G103" t="n">
-        <v>37.48332962798263</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="H103" t="n">
-        <v>0.280789831506943</v>
+        <v>0.2548918581351776</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2850248592473981</v>
+        <v>0.2808702366414768</v>
       </c>
       <c r="J103" t="n">
-        <v>0.230569909019358</v>
+        <v>0.3486204464523378</v>
       </c>
       <c r="K103" t="n">
-        <v>46.38965401897281</v>
+        <v>39.56008088970496</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.44030650891055</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="B104" t="n">
-        <v>9.055385138137417</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C104" t="n">
-        <v>35.12833614050059</v>
+        <v>26.92582403567252</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2774923863326785</v>
+        <v>0.3787456611791994</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F104" t="n">
-        <v>9</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="G104" t="n">
-        <v>36.34556369077249</v>
+        <v>37.65634076752546</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2751367425493755</v>
+        <v>0.2860163625765055</v>
       </c>
       <c r="I104" t="n">
-        <v>0.276314564441027</v>
+        <v>0.3323810118778525</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2364561790454173</v>
+        <v>0.3401273970162501</v>
       </c>
       <c r="K104" t="n">
-        <v>46.2709412050371</v>
+        <v>38.3275357934736</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11.40175425099138</v>
+        <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>11.40175425099138</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="C105" t="n">
-        <v>31</v>
+        <v>29.42787793912432</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3677985242255283</v>
+        <v>0.08896441646814167</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>3.605551275463989</v>
       </c>
       <c r="F105" t="n">
-        <v>12.16552506059644</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="G105" t="n">
-        <v>33.24154027718932</v>
+        <v>34.48187929913333</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3634838346702464</v>
+        <v>0.08470563918931476</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3656411794478873</v>
+        <v>0.08683502782872821</v>
       </c>
       <c r="J105" t="n">
-        <v>0.265073680130803</v>
+        <v>0.2861514619785546</v>
       </c>
       <c r="K105" t="n">
-        <v>43.18564576337837</v>
+        <v>44.38468204234429</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.615773105863909</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>8.062257748298549</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>28.63564212655271</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2613005142360409</v>
+        <v>0.07396495526063043</v>
       </c>
       <c r="E106" t="n">
-        <v>8.246211251235321</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="F106" t="n">
-        <v>9.486832980505138</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="G106" t="n">
-        <v>36.6742416417845</v>
+        <v>33.24154027718932</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2417642933826402</v>
+        <v>0.06726727939963124</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2515324038093406</v>
+        <v>0.07061611733013085</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2667305725426264</v>
+        <v>0.2241697983564</v>
       </c>
       <c r="K106" t="n">
-        <v>49.25444142409901</v>
+        <v>44.9221548904324</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.04987562112089</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>9.055385138137417</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="C107" t="n">
-        <v>35.0142828000232</v>
+        <v>24.51530134426253</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2728209637817521</v>
+        <v>0.06600098306067015</v>
       </c>
       <c r="E107" t="n">
-        <v>11.04536101718726</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="F107" t="n">
-        <v>10.04987562112089</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="G107" t="n">
-        <v>35.05709628591621</v>
+        <v>31.38470965295043</v>
       </c>
       <c r="H107" t="n">
-        <v>0.300869707893961</v>
+        <v>0.05815382044692147</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2868453358378565</v>
+        <v>0.06207740175379581</v>
       </c>
       <c r="J107" t="n">
-        <v>0.293071668556702</v>
+        <v>0.1665559590863968</v>
       </c>
       <c r="K107" t="n">
-        <v>44.01136216933077</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.055385138137417</v>
+        <v>11</v>
       </c>
       <c r="B108" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>33.01514803843835</v>
+        <v>33.734255586866</v>
       </c>
       <c r="D108" t="n">
-        <v>0.258296360178068</v>
+        <v>0.3260780417008137</v>
       </c>
       <c r="E108" t="n">
-        <v>10.04987562112089</v>
+        <v>10.77032961426901</v>
       </c>
       <c r="F108" t="n">
-        <v>9.055385138137417</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="G108" t="n">
-        <v>33</v>
+        <v>39.319206502675</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2894736478675501</v>
+        <v>0.2791341872613144</v>
       </c>
       <c r="I108" t="n">
-        <v>0.273885004022809</v>
+        <v>0.3026061144810641</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2908436975117841</v>
+        <v>0.1709031346543143</v>
       </c>
       <c r="K108" t="n">
-        <v>44</v>
+        <v>45.89117562233506</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
+        <v>12</v>
+      </c>
+      <c r="B109" t="n">
         <v>10.04987562112089</v>
       </c>
-      <c r="B109" t="n">
-        <v>8.062257748298549</v>
-      </c>
       <c r="C109" t="n">
-        <v>34.0147027033899</v>
+        <v>35.22782990761707</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2662397717739627</v>
+        <v>0.3129610265370504</v>
       </c>
       <c r="E109" t="n">
-        <v>9.055385138137417</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F109" t="n">
-        <v>8</v>
+        <v>11.40175425099138</v>
       </c>
       <c r="G109" t="n">
-        <v>33</v>
+        <v>38.01315561749642</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2584149263354154</v>
+        <v>0.2970299856939054</v>
       </c>
       <c r="I109" t="n">
-        <v>0.262327349054689</v>
+        <v>0.3049955061154779</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2880462544345165</v>
+        <v>0.1654260335018394</v>
       </c>
       <c r="K109" t="n">
-        <v>43</v>
+        <v>46.17358552246078</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.04987562112089</v>
+        <v>13.0384048104053</v>
       </c>
       <c r="B110" t="n">
-        <v>9.055385138137417</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>33.01514803843835</v>
+        <v>37.33630940518894</v>
       </c>
       <c r="D110" t="n">
-        <v>0.289340831321046</v>
+        <v>0.3353090491440686</v>
       </c>
       <c r="E110" t="n">
-        <v>10.04987562112089</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="F110" t="n">
-        <v>9.055385138137417</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="G110" t="n">
-        <v>33</v>
+        <v>39.01281840626232</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2894736478675501</v>
+        <v>0.3118340473100409</v>
       </c>
       <c r="I110" t="n">
-        <v>0.289407239594298</v>
+        <v>0.3235715482270547</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2727994664637986</v>
+        <v>0.2127733375815047</v>
       </c>
       <c r="K110" t="n">
-        <v>43</v>
+        <v>46.09772228646444</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.04987562112089</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
-        <v>9.055385138137417</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="C111" t="n">
-        <v>33.01514803843835</v>
+        <v>37.12142238654117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.289340831321046</v>
+        <v>0.3372930368620712</v>
       </c>
       <c r="E111" t="n">
-        <v>10.04987562112089</v>
+        <v>13.15294643796591</v>
       </c>
       <c r="F111" t="n">
-        <v>9.055385138137417</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="G111" t="n">
-        <v>32</v>
+        <v>37.01351104664349</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2985196993634111</v>
+        <v>0.3403424898682089</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2939302653422285</v>
+        <v>0.33881776336514</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2812790387703762</v>
+        <v>0.2664136667885065</v>
       </c>
       <c r="K111" t="n">
-        <v>43</v>
+        <v>45.04442251822083</v>
       </c>
     </row>
     <row r="112">
@@ -7493,136 +7493,136 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>33.06055050963308</v>
+        <v>36.22154055254967</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3182850964785829</v>
+        <v>0.2905089167405092</v>
       </c>
       <c r="E112" t="n">
-        <v>11.04536101718726</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F112" t="n">
         <v>10.04987562112089</v>
       </c>
       <c r="G112" t="n">
-        <v>33</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3196247975501235</v>
+        <v>0.2947504107775191</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3189549470143532</v>
+        <v>0.2926296637590142</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2877009610056755</v>
+        <v>0.3125241191895502</v>
       </c>
       <c r="K112" t="n">
-        <v>42.01190307520001</v>
+        <v>46.04345773288535</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.062257748298549</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="B113" t="n">
-        <v>7.071067811865476</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="C113" t="n">
-        <v>32.01562118716424</v>
+        <v>35.12833614050059</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2363428382615813</v>
+        <v>0.3286087263518562</v>
       </c>
       <c r="E113" t="n">
-        <v>9.055385138137417</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="F113" t="n">
-        <v>8.062257748298549</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="G113" t="n">
-        <v>33</v>
+        <v>38.01315561749642</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2593582255520601</v>
+        <v>0.3200346002055399</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2478505319068207</v>
+        <v>0.324321663278698</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2824940665824779</v>
+        <v>0.3168672289490769</v>
       </c>
       <c r="K113" t="n">
-        <v>43</v>
+        <v>47.0425339453563</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.219544457292887</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="B114" t="n">
-        <v>8</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="C114" t="n">
-        <v>33.01514803843835</v>
+        <v>36.12478373637688</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2607824813816492</v>
+        <v>0.3195445509716849</v>
       </c>
       <c r="E114" t="n">
-        <v>9.055385138137417</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="F114" t="n">
-        <v>8</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="G114" t="n">
-        <v>33</v>
+        <v>37.01351104664349</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2584149263354154</v>
+        <v>0.3286779534442369</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2595987038585323</v>
+        <v>0.3241112522079609</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2819483375432466</v>
+        <v>0.3206903781675735</v>
       </c>
       <c r="K114" t="n">
-        <v>43.01162633521314</v>
+        <v>47.0425339453563</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.062257748298549</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="C115" t="n">
-        <v>33</v>
+        <v>36.22154055254967</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2282160264893719</v>
+        <v>0.3186909673607801</v>
       </c>
       <c r="E115" t="n">
-        <v>8.246211251235321</v>
+        <v>12.16552506059644</v>
       </c>
       <c r="F115" t="n">
-        <v>8.062257748298549</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="G115" t="n">
-        <v>32</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2548198281177168</v>
+        <v>0.3104852938796965</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2415179273035443</v>
+        <v>0.3145881306202383</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2723704750850958</v>
+        <v>0.3188936946462103</v>
       </c>
       <c r="K115" t="n">
-        <v>43.01162633521314</v>
+        <v>46.04345773288535</v>
       </c>
     </row>
     <row r="116">
@@ -7630,244 +7630,244 @@
         <v>10.04987562112089</v>
       </c>
       <c r="B116" t="n">
-        <v>9.055385138137417</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>33.01514803843835</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="D116" t="n">
-        <v>0.289340831321046</v>
+        <v>0.2644795886460153</v>
       </c>
       <c r="E116" t="n">
         <v>10.04987562112089</v>
       </c>
       <c r="F116" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G116" t="n">
-        <v>32.01562118716424</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2983740444636136</v>
+        <v>0.279055572128851</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2938574378923298</v>
+        <v>0.2717675803874331</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2723559095951161</v>
+        <v>0.3054836580506689</v>
       </c>
       <c r="K116" t="n">
-        <v>42</v>
+        <v>46.04345773288535</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.219544457292887</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
-        <v>8.062257748298549</v>
+        <v>9</v>
       </c>
       <c r="C117" t="n">
-        <v>33.01514803843835</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2617253477929412</v>
+        <v>0.2637871387833562</v>
       </c>
       <c r="E117" t="n">
-        <v>9.055385138137417</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F117" t="n">
-        <v>9.055385138137417</v>
+        <v>9</v>
       </c>
       <c r="G117" t="n">
-        <v>32.01562118716424</v>
+        <v>37.05401462729781</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2828427124746191</v>
+        <v>0.2570554879509168</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2722840301337801</v>
+        <v>0.2604213133671365</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2630217262190014</v>
+        <v>0.2990419879722934</v>
       </c>
       <c r="K117" t="n">
-        <v>43</v>
+        <v>46.04345773288535</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34.0147027033899</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.279290990217981</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.04536101718726</v>
+      </c>
+      <c r="F118" t="n">
         <v>9.055385138137417</v>
       </c>
-      <c r="B118" t="n">
-        <v>8.062257748298549</v>
-      </c>
-      <c r="C118" t="n">
-        <v>32</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.267463170100562</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.055385138137417</v>
-      </c>
-      <c r="F118" t="n">
-        <v>8</v>
-      </c>
       <c r="G118" t="n">
-        <v>33.01514803843835</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H118" t="n">
-        <v>0.258296360178068</v>
+        <v>0.2790693850380866</v>
       </c>
       <c r="I118" t="n">
-        <v>0.262879765139315</v>
+        <v>0.2791801876280338</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2660275728655003</v>
+        <v>0.2900136928421605</v>
       </c>
       <c r="K118" t="n">
-        <v>43.01162633521314</v>
+        <v>46.04345773288535</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.246211251235321</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="B119" t="n">
-        <v>8.062257748298549</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C119" t="n">
-        <v>32.0624390837628</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2543235865014536</v>
+        <v>0.2728209637817521</v>
       </c>
       <c r="E119" t="n">
-        <v>9.055385138137417</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G119" t="n">
-        <v>34.05877273185281</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2503816751181216</v>
+        <v>0.2783004436106976</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2523526308097876</v>
+        <v>0.2755607036962249</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2645783582557514</v>
+        <v>0.2803035831398133</v>
       </c>
       <c r="K119" t="n">
-        <v>42.04759208325728</v>
+        <v>46.01086828130936</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.055385138137417</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>31</v>
+        <v>35.0142828000232</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2750868570667325</v>
+        <v>0.2862454891861155</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G120" t="n">
-        <v>34.05877273185281</v>
+        <v>36.01388621073821</v>
       </c>
       <c r="H120" t="n">
-        <v>0.2495685932937489</v>
+        <v>0.2947504107775191</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2623277251802407</v>
+        <v>0.2904979499818173</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2687403178310906</v>
+        <v>0.2754855470121291</v>
       </c>
       <c r="K120" t="n">
-        <v>42.01190307520001</v>
+        <v>46.01086828130936</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.062257748298549</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>31.01612483854165</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2428133402658622</v>
+        <v>0.2946573014614287</v>
       </c>
       <c r="E121" t="n">
-        <v>9.055385138137417</v>
+        <v>11.04536101718726</v>
       </c>
       <c r="F121" t="n">
-        <v>7</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G121" t="n">
-        <v>33.01514803843835</v>
+        <v>36</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2431517968576834</v>
+        <v>0.2929893977542799</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2429825685617728</v>
+        <v>0.2938233496078543</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2585653439649793</v>
+        <v>0.2798967008562133</v>
       </c>
       <c r="K121" t="n">
-        <v>42.01190307520001</v>
+        <v>45.0111097397076</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.071067811865476</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="B122" t="n">
-        <v>6.082762530298219</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="C122" t="n">
-        <v>34.13209633175202</v>
+        <v>37.05401462729781</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1926900447941004</v>
+        <v>0.2443833746280838</v>
       </c>
       <c r="E122" t="n">
-        <v>7.071067811865476</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>9.055385138137417</v>
       </c>
       <c r="G122" t="n">
         <v>33.01514803843835</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1979556141418372</v>
+        <v>0.289340831321046</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1953228294679688</v>
+        <v>0.2668621029745649</v>
       </c>
       <c r="J122" t="n">
-        <v>0.243173103831817</v>
+        <v>0.281184858777699</v>
       </c>
       <c r="K122" t="n">
-        <v>48.0936586256442</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123">
